--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,126 +8,87 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
-  <si>
-    <t>9:00am-12:00pm</t>
-  </si>
-  <si>
-    <t>1:00pm-4:00pm</t>
-  </si>
-  <si>
-    <t>5:00pm-8:00PM</t>
-  </si>
-  <si>
-    <t>MONDAY</t>
-  </si>
-  <si>
-    <t>TUESDAY</t>
-  </si>
-  <si>
-    <t>WEDNESDAY</t>
-  </si>
-  <si>
-    <t>THURSDAY</t>
-  </si>
-  <si>
-    <t>FRIDAY</t>
-  </si>
-  <si>
-    <t>Graphic Design</t>
-  </si>
-  <si>
-    <t>Hardware Electronic</t>
-  </si>
-  <si>
-    <t>Intro to Computer</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Professional Development</t>
-  </si>
-  <si>
-    <t>Entrepreneurship</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Java Script</t>
-  </si>
-  <si>
-    <t>Hardware Design</t>
-  </si>
-  <si>
-    <t>HTML &amp; CSS</t>
-  </si>
-  <si>
-    <t>Navigating Your Journey</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>LOVELACE LAB</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Talaso</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Phiphi</t>
+  </si>
+  <si>
+    <t>Peshie</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Shank</t>
+  </si>
+  <si>
+    <t>sue</t>
+  </si>
+  <si>
+    <t>esther</t>
+  </si>
+  <si>
+    <t>students name</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Kiswahili</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Total marks</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>highest marks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>lowest mark</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -169,27 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,173 +437,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="6" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(B2:H2)</f>
+        <v>411</v>
+      </c>
+      <c r="J2" s="1">
+        <f>AVERAGE(B2:H2)</f>
+        <v>58.714285714285715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>99</v>
+      </c>
+      <c r="C3" s="1">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1">
+        <v>77</v>
+      </c>
+      <c r="G3" s="1">
+        <v>80</v>
+      </c>
+      <c r="H3" s="1">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I10" si="0">SUM(B3:H3)</f>
+        <v>453</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J10" si="1">AVERAGE(B3:H3)</f>
+        <v>64.714285714285708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1">
+        <v>82</v>
+      </c>
+      <c r="E4" s="1">
+        <v>76</v>
+      </c>
+      <c r="F4" s="1">
+        <v>81</v>
+      </c>
+      <c r="G4" s="1">
+        <v>77</v>
+      </c>
+      <c r="H4" s="1">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>453</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>64.714285714285708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B5" s="1">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1">
+        <v>87</v>
+      </c>
+      <c r="F5" s="1">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1">
+        <v>55</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>52.571428571428569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B6" s="1">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1">
+        <v>88</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B7" s="1">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1">
+        <v>93</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1">
+        <v>78</v>
+      </c>
+      <c r="F7" s="1">
+        <v>98</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
+        <v>99</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>515</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>73.571428571428569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B8" s="1">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1">
+        <v>82</v>
+      </c>
+      <c r="E8" s="1">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1">
+        <v>97</v>
+      </c>
+      <c r="G8" s="1">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>72.571428571428569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B9" s="1">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1">
+        <v>88</v>
+      </c>
+      <c r="D9" s="1">
+        <v>93</v>
+      </c>
+      <c r="E9" s="1">
+        <v>91</v>
+      </c>
+      <c r="F9" s="1">
+        <v>99</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>485</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>69.285714285714292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1">
+        <v>90</v>
+      </c>
+      <c r="D10" s="1">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="H10" s="1">
+        <v>33</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>46.285714285714285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <f>MAX(B2:B10)</f>
+        <v>99</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11:J11" si="2">MAX(C2:C10)</f>
+        <v>93</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>515</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>73.571428571428569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1">
+        <f>MIN(B2:B10)</f>
+        <v>40</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:J13" si="3">MIN(C2:C10)</f>
+        <v>48</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>25</v>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>324</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="3"/>
+        <v>46.285714285714285</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>